--- a/docking/haddock_2.4/HADDOCK_Results.xlsx
+++ b/docking/haddock_2.4/HADDOCK_Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/lecanemab_analysis/docking/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/lecanemab_analysis/docking/haddock_2.4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBA08BA-0B8B-3C42-BE0C-852B93ABF969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABED03A-AD8B-BE4B-B982-65D837B19019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{3956B6CC-1D3B-CF40-873B-28FEA3B6BDDD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Fab Structure</t>
   </si>
@@ -120,6 +120,39 @@
   </si>
   <si>
     <t>Cluster 1_1</t>
+  </si>
+  <si>
+    <t>ICs charged-charged</t>
+  </si>
+  <si>
+    <t>ICs charged-polar</t>
+  </si>
+  <si>
+    <t>ICs charged-apolar</t>
+  </si>
+  <si>
+    <t>ICs polar-polar</t>
+  </si>
+  <si>
+    <t>ICs polar-apolar</t>
+  </si>
+  <si>
+    <t>ICs apolar-apolar</t>
+  </si>
+  <si>
+    <t>NIS charged</t>
+  </si>
+  <si>
+    <t>NIS apolar</t>
+  </si>
+  <si>
+    <t>ΔG (kcal mol-1)</t>
+  </si>
+  <si>
+    <t>Kd (M) at 25℃</t>
+  </si>
+  <si>
+    <t>Kd (M) at 37℃</t>
   </si>
 </sst>
 </file>
@@ -493,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD23C923-8E44-364E-8947-A74216C52E67}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,9 +539,9 @@
     <col min="3" max="3" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -520,10 +553,14 @@
     <col min="17" max="17" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="10.83203125" style="1"/>
+    <col min="21" max="21" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="29" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="158" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="158" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,8 +621,41 @@
       <c r="T1" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="U1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" ht="170" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -645,6 +715,39 @@
       </c>
       <c r="T2" s="1">
         <v>37.700000000000003</v>
+      </c>
+      <c r="U2" s="1">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1.1999999999999999E-13</v>
+      </c>
+      <c r="W2" s="1">
+        <v>3.8E-13</v>
+      </c>
+      <c r="X2" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>11</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>49</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>19.89</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>40.619999999999997</v>
       </c>
     </row>
   </sheetData>
